--- a/data/获取数据/政策导向指标/非国企20年数据/301370.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/301370.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>国科恒泰</t>
   </si>
   <si>
-    <t>301370</t>
-  </si>
-  <si>
     <t>2023-07-12</t>
   </si>
   <si>
@@ -290,6 +314,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>中国科学院控股有限公司</t>
+  </si>
+  <si>
+    <t>东方科仪控股集团有限公司;西藏国科鼎奕投资中心(有限合伙);北京国科嘉和金源投资基金中心(有限合伙);北京君联益康股权投资合伙企业(有限合伙);苏州国丰鼎嘉创业投资合伙企业(有限合伙);宁波梅山保税港区国科瑞鼎创业投资合伙企业(有限合伙);苏州北极光泓源创业投资合伙企业(有限合伙);珠海夏尔巴一期股权投资合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -647,13 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,16 +729,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301370</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>20.05</v>
@@ -735,3119 +798,3148 @@
         <v>74.69</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301370</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3">
+        <v>21848</v>
+      </c>
+      <c r="S3">
+        <v>46.44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3">
+        <v>43.47116032743669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>301370</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>22.03</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>21.55</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>23.18</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>21.52</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>377634</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>843755129</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>6.37</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>-17.37</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>-4.53</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301370</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>20.63</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>20.18</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>21.88</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>20.02</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>275455</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>571421995</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>8.630000000000001</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>-6.36</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-1.37</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>41.58</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301370</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>19.8</v>
+      </c>
+      <c r="E6">
+        <v>18.56</v>
+      </c>
+      <c r="F6">
+        <v>19.97</v>
+      </c>
+      <c r="G6">
+        <v>18.42</v>
+      </c>
+      <c r="H6">
+        <v>225986</v>
+      </c>
+      <c r="I6">
+        <v>429354309</v>
+      </c>
+      <c r="J6">
+        <v>7.68</v>
+      </c>
+      <c r="K6">
+        <v>-8.029999999999999</v>
+      </c>
+      <c r="L6">
+        <v>-1.62</v>
+      </c>
+      <c r="M6">
+        <v>34.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301370</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>18.4</v>
+      </c>
+      <c r="E7">
+        <v>18.16</v>
+      </c>
+      <c r="F7">
+        <v>18.94</v>
+      </c>
+      <c r="G7">
+        <v>18.1</v>
+      </c>
+      <c r="H7">
+        <v>143955</v>
+      </c>
+      <c r="I7">
+        <v>265130297</v>
+      </c>
+      <c r="J7">
+        <v>4.53</v>
+      </c>
+      <c r="K7">
+        <v>-2.16</v>
+      </c>
+      <c r="L7">
+        <v>-0.4</v>
+      </c>
+      <c r="M7">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301370</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>18.17</v>
+      </c>
+      <c r="E8">
+        <v>18.26</v>
+      </c>
+      <c r="F8">
+        <v>18.3</v>
+      </c>
+      <c r="G8">
+        <v>17.71</v>
+      </c>
+      <c r="H8">
+        <v>130546</v>
+      </c>
+      <c r="I8">
+        <v>235129527</v>
+      </c>
+      <c r="J8">
+        <v>3.25</v>
+      </c>
+      <c r="K8">
+        <v>0.55</v>
+      </c>
+      <c r="L8">
+        <v>0.1</v>
+      </c>
+      <c r="M8">
+        <v>19.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301370</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>18.16</v>
+      </c>
+      <c r="E9">
+        <v>17.83</v>
+      </c>
+      <c r="F9">
+        <v>18.47</v>
+      </c>
+      <c r="G9">
+        <v>17.81</v>
+      </c>
+      <c r="H9">
+        <v>113990</v>
+      </c>
+      <c r="I9">
+        <v>206919490</v>
+      </c>
+      <c r="J9">
+        <v>3.61</v>
+      </c>
+      <c r="K9">
+        <v>-2.35</v>
+      </c>
+      <c r="L9">
+        <v>-0.43</v>
+      </c>
+      <c r="M9">
+        <v>17.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>301370</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>17.78</v>
+      </c>
+      <c r="E10">
+        <v>18.28</v>
+      </c>
+      <c r="F10">
+        <v>18.43</v>
+      </c>
+      <c r="G10">
+        <v>17.72</v>
+      </c>
+      <c r="H10">
+        <v>135927</v>
+      </c>
+      <c r="I10">
+        <v>248045590</v>
+      </c>
+      <c r="J10">
+        <v>3.98</v>
+      </c>
+      <c r="K10">
+        <v>2.52</v>
+      </c>
+      <c r="L10">
+        <v>0.45</v>
+      </c>
+      <c r="M10">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301370</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>18.03</v>
+      </c>
+      <c r="E11">
+        <v>17.54</v>
+      </c>
+      <c r="F11">
+        <v>18.05</v>
+      </c>
+      <c r="G11">
+        <v>17.35</v>
+      </c>
+      <c r="H11">
+        <v>100926</v>
+      </c>
+      <c r="I11">
+        <v>177410017</v>
+      </c>
+      <c r="J11">
+        <v>3.83</v>
+      </c>
+      <c r="K11">
+        <v>-4.05</v>
+      </c>
+      <c r="L11">
+        <v>-0.74</v>
+      </c>
+      <c r="M11">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>301370</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>17.57</v>
+      </c>
+      <c r="E12">
+        <v>18.13</v>
+      </c>
+      <c r="F12">
+        <v>18.39</v>
+      </c>
+      <c r="G12">
+        <v>17.57</v>
+      </c>
+      <c r="H12">
+        <v>112508</v>
+      </c>
+      <c r="I12">
+        <v>203167225</v>
+      </c>
+      <c r="J12">
+        <v>4.68</v>
+      </c>
+      <c r="K12">
+        <v>3.36</v>
+      </c>
+      <c r="L12">
+        <v>0.59</v>
+      </c>
+      <c r="M12">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>301370</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>18</v>
       </c>
-      <c r="D5">
-        <v>19.8</v>
-      </c>
-      <c r="E5">
-        <v>18.56</v>
-      </c>
-      <c r="F5">
-        <v>19.97</v>
-      </c>
-      <c r="G5">
-        <v>18.42</v>
-      </c>
-      <c r="H5">
-        <v>225986</v>
-      </c>
-      <c r="I5">
-        <v>429354309</v>
-      </c>
-      <c r="J5">
-        <v>7.68</v>
-      </c>
-      <c r="K5">
-        <v>-8.029999999999999</v>
-      </c>
-      <c r="L5">
-        <v>-1.62</v>
-      </c>
-      <c r="M5">
-        <v>34.11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>18.4</v>
-      </c>
-      <c r="E6">
-        <v>18.16</v>
-      </c>
-      <c r="F6">
-        <v>18.94</v>
-      </c>
-      <c r="G6">
-        <v>18.1</v>
-      </c>
-      <c r="H6">
-        <v>143955</v>
-      </c>
-      <c r="I6">
-        <v>265130297</v>
-      </c>
-      <c r="J6">
-        <v>4.53</v>
-      </c>
-      <c r="K6">
-        <v>-2.16</v>
-      </c>
-      <c r="L6">
-        <v>-0.4</v>
-      </c>
-      <c r="M6">
-        <v>21.73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>18.17</v>
-      </c>
-      <c r="E7">
-        <v>18.26</v>
-      </c>
-      <c r="F7">
-        <v>18.3</v>
-      </c>
-      <c r="G7">
-        <v>17.71</v>
-      </c>
-      <c r="H7">
-        <v>130546</v>
-      </c>
-      <c r="I7">
-        <v>235129527</v>
-      </c>
-      <c r="J7">
-        <v>3.25</v>
-      </c>
-      <c r="K7">
-        <v>0.55</v>
-      </c>
-      <c r="L7">
-        <v>0.1</v>
-      </c>
-      <c r="M7">
-        <v>19.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>18.16</v>
-      </c>
-      <c r="E8">
-        <v>17.83</v>
-      </c>
-      <c r="F8">
-        <v>18.47</v>
-      </c>
-      <c r="G8">
+      <c r="E13">
+        <v>18.11</v>
+      </c>
+      <c r="F13">
+        <v>18.36</v>
+      </c>
+      <c r="G13">
+        <v>17.87</v>
+      </c>
+      <c r="H13">
+        <v>87212</v>
+      </c>
+      <c r="I13">
+        <v>157891383</v>
+      </c>
+      <c r="J13">
+        <v>2.7</v>
+      </c>
+      <c r="K13">
+        <v>-0.11</v>
+      </c>
+      <c r="L13">
+        <v>-0.02</v>
+      </c>
+      <c r="M13">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>301370</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>18.08</v>
+      </c>
+      <c r="E14">
+        <v>17.95</v>
+      </c>
+      <c r="F14">
+        <v>18.08</v>
+      </c>
+      <c r="G14">
+        <v>17.51</v>
+      </c>
+      <c r="H14">
+        <v>76772</v>
+      </c>
+      <c r="I14">
+        <v>136750064</v>
+      </c>
+      <c r="J14">
+        <v>3.15</v>
+      </c>
+      <c r="K14">
+        <v>-0.88</v>
+      </c>
+      <c r="L14">
+        <v>-0.16</v>
+      </c>
+      <c r="M14">
+        <v>11.59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>301370</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>17.84</v>
+      </c>
+      <c r="E15">
+        <v>17.69</v>
+      </c>
+      <c r="F15">
+        <v>17.86</v>
+      </c>
+      <c r="G15">
+        <v>17.4</v>
+      </c>
+      <c r="H15">
+        <v>79691</v>
+      </c>
+      <c r="I15">
+        <v>140414017</v>
+      </c>
+      <c r="J15">
+        <v>2.56</v>
+      </c>
+      <c r="K15">
+        <v>-1.45</v>
+      </c>
+      <c r="L15">
+        <v>-0.26</v>
+      </c>
+      <c r="M15">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>301370</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>19.06</v>
+      </c>
+      <c r="F16">
+        <v>19.28</v>
+      </c>
+      <c r="G16">
         <v>17.81</v>
       </c>
-      <c r="H8">
-        <v>113990</v>
-      </c>
-      <c r="I8">
-        <v>206919490</v>
-      </c>
-      <c r="J8">
-        <v>3.61</v>
-      </c>
-      <c r="K8">
-        <v>-2.35</v>
-      </c>
-      <c r="L8">
-        <v>-0.43</v>
-      </c>
-      <c r="M8">
-        <v>17.21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>17.78</v>
-      </c>
-      <c r="E9">
-        <v>18.28</v>
-      </c>
-      <c r="F9">
-        <v>18.43</v>
-      </c>
-      <c r="G9">
-        <v>17.72</v>
-      </c>
-      <c r="H9">
-        <v>135927</v>
-      </c>
-      <c r="I9">
-        <v>248045590</v>
-      </c>
-      <c r="J9">
-        <v>3.98</v>
-      </c>
-      <c r="K9">
-        <v>2.52</v>
-      </c>
-      <c r="L9">
-        <v>0.45</v>
-      </c>
-      <c r="M9">
-        <v>20.52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>18.03</v>
-      </c>
-      <c r="E10">
-        <v>17.54</v>
-      </c>
-      <c r="F10">
-        <v>18.05</v>
-      </c>
-      <c r="G10">
-        <v>17.35</v>
-      </c>
-      <c r="H10">
-        <v>100926</v>
-      </c>
-      <c r="I10">
-        <v>177410017</v>
-      </c>
-      <c r="J10">
-        <v>3.83</v>
-      </c>
-      <c r="K10">
-        <v>-4.05</v>
-      </c>
-      <c r="L10">
-        <v>-0.74</v>
-      </c>
-      <c r="M10">
-        <v>15.23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>17.57</v>
-      </c>
-      <c r="E11">
-        <v>18.13</v>
-      </c>
-      <c r="F11">
-        <v>18.39</v>
-      </c>
-      <c r="G11">
-        <v>17.57</v>
-      </c>
-      <c r="H11">
-        <v>112508</v>
-      </c>
-      <c r="I11">
-        <v>203167225</v>
-      </c>
-      <c r="J11">
-        <v>4.68</v>
-      </c>
-      <c r="K11">
-        <v>3.36</v>
-      </c>
-      <c r="L11">
-        <v>0.59</v>
-      </c>
-      <c r="M11">
-        <v>16.98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>18.11</v>
-      </c>
-      <c r="F12">
-        <v>18.36</v>
-      </c>
-      <c r="G12">
-        <v>17.87</v>
-      </c>
-      <c r="H12">
-        <v>87212</v>
-      </c>
-      <c r="I12">
-        <v>157891383</v>
-      </c>
-      <c r="J12">
-        <v>2.7</v>
-      </c>
-      <c r="K12">
-        <v>-0.11</v>
-      </c>
-      <c r="L12">
-        <v>-0.02</v>
-      </c>
-      <c r="M12">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>18.08</v>
-      </c>
-      <c r="E13">
-        <v>17.95</v>
-      </c>
-      <c r="F13">
-        <v>18.08</v>
-      </c>
-      <c r="G13">
-        <v>17.51</v>
-      </c>
-      <c r="H13">
-        <v>76772</v>
-      </c>
-      <c r="I13">
-        <v>136750064</v>
-      </c>
-      <c r="J13">
-        <v>3.15</v>
-      </c>
-      <c r="K13">
-        <v>-0.88</v>
-      </c>
-      <c r="L13">
-        <v>-0.16</v>
-      </c>
-      <c r="M13">
-        <v>11.59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>17.84</v>
-      </c>
-      <c r="E14">
-        <v>17.69</v>
-      </c>
-      <c r="F14">
-        <v>17.86</v>
-      </c>
-      <c r="G14">
-        <v>17.4</v>
-      </c>
-      <c r="H14">
-        <v>79691</v>
-      </c>
-      <c r="I14">
-        <v>140414017</v>
-      </c>
-      <c r="J14">
-        <v>2.56</v>
-      </c>
-      <c r="K14">
-        <v>-1.45</v>
-      </c>
-      <c r="L14">
-        <v>-0.26</v>
-      </c>
-      <c r="M14">
-        <v>12.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>19.06</v>
-      </c>
-      <c r="F15">
-        <v>19.28</v>
-      </c>
-      <c r="G15">
-        <v>17.81</v>
-      </c>
-      <c r="H15">
+      <c r="H16">
         <v>205401</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>380075299</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>8.31</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>7.74</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>1.37</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>18.81</v>
-      </c>
-      <c r="E16">
-        <v>18.52</v>
-      </c>
-      <c r="F16">
-        <v>19.22</v>
-      </c>
-      <c r="G16">
-        <v>18.46</v>
-      </c>
-      <c r="H16">
-        <v>174075</v>
-      </c>
-      <c r="I16">
-        <v>327532572</v>
-      </c>
-      <c r="J16">
-        <v>3.99</v>
-      </c>
-      <c r="K16">
-        <v>-2.83</v>
-      </c>
-      <c r="L16">
-        <v>-0.54</v>
-      </c>
-      <c r="M16">
-        <v>26.28</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>301370</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>18.06</v>
+        <v>18.81</v>
       </c>
       <c r="E17">
-        <v>17.89</v>
+        <v>18.52</v>
       </c>
       <c r="F17">
-        <v>18.23</v>
+        <v>19.22</v>
       </c>
       <c r="G17">
-        <v>17.75</v>
+        <v>18.46</v>
       </c>
       <c r="H17">
-        <v>114100</v>
+        <v>174075</v>
       </c>
       <c r="I17">
-        <v>204196423</v>
+        <v>327532572</v>
       </c>
       <c r="J17">
-        <v>2.59</v>
+        <v>3.99</v>
       </c>
       <c r="K17">
-        <v>-3.4</v>
+        <v>-2.83</v>
       </c>
       <c r="L17">
-        <v>-0.63</v>
+        <v>-0.54</v>
       </c>
       <c r="M17">
-        <v>17.22</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>301370</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>17.81</v>
+        <v>18.06</v>
       </c>
       <c r="E18">
-        <v>17.86</v>
+        <v>17.89</v>
       </c>
       <c r="F18">
-        <v>18.14</v>
+        <v>18.23</v>
       </c>
       <c r="G18">
-        <v>17.66</v>
+        <v>17.75</v>
       </c>
       <c r="H18">
-        <v>86295</v>
+        <v>114100</v>
       </c>
       <c r="I18">
-        <v>154588011</v>
+        <v>204196423</v>
       </c>
       <c r="J18">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="K18">
-        <v>-0.17</v>
+        <v>-3.4</v>
       </c>
       <c r="L18">
-        <v>-0.03</v>
+        <v>-0.63</v>
       </c>
       <c r="M18">
-        <v>13.03</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>301370</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>17.75</v>
+        <v>17.81</v>
       </c>
       <c r="E19">
-        <v>17.53</v>
+        <v>17.86</v>
       </c>
       <c r="F19">
-        <v>17.84</v>
+        <v>18.14</v>
       </c>
       <c r="G19">
-        <v>17.51</v>
+        <v>17.66</v>
       </c>
       <c r="H19">
-        <v>88762</v>
+        <v>86295</v>
       </c>
       <c r="I19">
-        <v>156408286</v>
+        <v>154588011</v>
       </c>
       <c r="J19">
-        <v>1.85</v>
+        <v>2.68</v>
       </c>
       <c r="K19">
-        <v>-1.85</v>
+        <v>-0.17</v>
       </c>
       <c r="L19">
-        <v>-0.33</v>
+        <v>-0.03</v>
       </c>
       <c r="M19">
-        <v>13.4</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>301370</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>17.56</v>
+        <v>17.75</v>
       </c>
       <c r="E20">
-        <v>17.11</v>
+        <v>17.53</v>
       </c>
       <c r="F20">
-        <v>17.61</v>
+        <v>17.84</v>
       </c>
       <c r="G20">
-        <v>17.03</v>
+        <v>17.51</v>
       </c>
       <c r="H20">
-        <v>79376</v>
+        <v>88762</v>
       </c>
       <c r="I20">
-        <v>136490879</v>
+        <v>156408286</v>
       </c>
       <c r="J20">
-        <v>3.31</v>
+        <v>1.85</v>
       </c>
       <c r="K20">
-        <v>-2.4</v>
+        <v>-1.85</v>
       </c>
       <c r="L20">
-        <v>-0.42</v>
+        <v>-0.33</v>
       </c>
       <c r="M20">
-        <v>11.98</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>301370</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>17.14</v>
+        <v>17.56</v>
       </c>
       <c r="E21">
-        <v>20.53</v>
+        <v>17.11</v>
       </c>
       <c r="F21">
-        <v>20.53</v>
+        <v>17.61</v>
       </c>
       <c r="G21">
-        <v>17.02</v>
+        <v>17.03</v>
       </c>
       <c r="H21">
-        <v>371660</v>
+        <v>79376</v>
       </c>
       <c r="I21">
-        <v>723252080</v>
+        <v>136490879</v>
       </c>
       <c r="J21">
-        <v>20.51</v>
+        <v>3.31</v>
       </c>
       <c r="K21">
-        <v>19.99</v>
+        <v>-2.4</v>
       </c>
       <c r="L21">
-        <v>3.42</v>
+        <v>-0.42</v>
       </c>
       <c r="M21">
-        <v>56.1</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>301370</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>21.5</v>
+        <v>17.14</v>
       </c>
       <c r="E22">
-        <v>22.83</v>
+        <v>20.53</v>
       </c>
       <c r="F22">
-        <v>24.03</v>
+        <v>20.53</v>
       </c>
       <c r="G22">
-        <v>20.67</v>
+        <v>17.02</v>
       </c>
       <c r="H22">
-        <v>503754</v>
+        <v>371660</v>
       </c>
       <c r="I22">
-        <v>1110971509</v>
+        <v>723252080</v>
       </c>
       <c r="J22">
-        <v>16.37</v>
+        <v>20.51</v>
       </c>
       <c r="K22">
-        <v>11.2</v>
+        <v>19.99</v>
       </c>
       <c r="L22">
-        <v>2.3</v>
+        <v>3.42</v>
       </c>
       <c r="M22">
-        <v>76.04000000000001</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>301370</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>22.91</v>
+        <v>21.5</v>
       </c>
       <c r="E23">
-        <v>23.38</v>
+        <v>22.83</v>
       </c>
       <c r="F23">
-        <v>24.3</v>
+        <v>24.03</v>
       </c>
       <c r="G23">
-        <v>21.77</v>
+        <v>20.67</v>
       </c>
       <c r="H23">
-        <v>445047</v>
+        <v>503754</v>
       </c>
       <c r="I23">
-        <v>1021111769</v>
+        <v>1110971509</v>
       </c>
       <c r="J23">
-        <v>11.08</v>
+        <v>16.37</v>
       </c>
       <c r="K23">
-        <v>2.41</v>
+        <v>11.2</v>
       </c>
       <c r="L23">
-        <v>0.55</v>
+        <v>2.3</v>
       </c>
       <c r="M23">
-        <v>67.18000000000001</v>
+        <v>76.04000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>301370</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
+        <v>22.91</v>
+      </c>
+      <c r="E24">
         <v>23.38</v>
       </c>
-      <c r="E24">
-        <v>22.72</v>
-      </c>
       <c r="F24">
-        <v>25.25</v>
+        <v>24.3</v>
       </c>
       <c r="G24">
-        <v>22.59</v>
+        <v>21.77</v>
       </c>
       <c r="H24">
-        <v>403009</v>
+        <v>445047</v>
       </c>
       <c r="I24">
-        <v>965005013</v>
+        <v>1021111769</v>
       </c>
       <c r="J24">
-        <v>11.38</v>
+        <v>11.08</v>
       </c>
       <c r="K24">
-        <v>-2.82</v>
+        <v>2.41</v>
       </c>
       <c r="L24">
-        <v>-0.66</v>
+        <v>0.55</v>
       </c>
       <c r="M24">
-        <v>60.83</v>
+        <v>67.18000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>301370</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>22.79</v>
+        <v>23.38</v>
       </c>
       <c r="E25">
-        <v>23.08</v>
+        <v>22.72</v>
       </c>
       <c r="F25">
-        <v>24.5</v>
+        <v>25.25</v>
       </c>
       <c r="G25">
-        <v>22.61</v>
+        <v>22.59</v>
       </c>
       <c r="H25">
-        <v>329331</v>
+        <v>403009</v>
       </c>
       <c r="I25">
-        <v>771078368</v>
+        <v>965005013</v>
       </c>
       <c r="J25">
-        <v>8.32</v>
+        <v>11.38</v>
       </c>
       <c r="K25">
-        <v>1.58</v>
+        <v>-2.82</v>
       </c>
       <c r="L25">
-        <v>0.36</v>
+        <v>-0.66</v>
       </c>
       <c r="M25">
-        <v>49.71</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>301370</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>21.73</v>
+        <v>22.79</v>
       </c>
       <c r="E26">
-        <v>27.1</v>
+        <v>23.08</v>
       </c>
       <c r="F26">
-        <v>27.7</v>
+        <v>24.5</v>
       </c>
       <c r="G26">
-        <v>21.73</v>
+        <v>22.61</v>
       </c>
       <c r="H26">
-        <v>507632</v>
+        <v>329331</v>
       </c>
       <c r="I26">
-        <v>1300108779</v>
+        <v>771078368</v>
       </c>
       <c r="J26">
-        <v>25.87</v>
+        <v>8.32</v>
       </c>
       <c r="K26">
-        <v>17.42</v>
+        <v>1.58</v>
       </c>
       <c r="L26">
-        <v>4.02</v>
+        <v>0.36</v>
       </c>
       <c r="M26">
-        <v>76.62</v>
+        <v>49.71</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>301370</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>26.6</v>
+        <v>21.73</v>
       </c>
       <c r="E27">
-        <v>25.2</v>
+        <v>27.1</v>
       </c>
       <c r="F27">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
       <c r="G27">
-        <v>24.38</v>
+        <v>21.73</v>
       </c>
       <c r="H27">
-        <v>396777</v>
+        <v>507632</v>
       </c>
       <c r="I27">
-        <v>1009193277</v>
+        <v>1300108779</v>
       </c>
       <c r="J27">
-        <v>8.93</v>
+        <v>25.87</v>
       </c>
       <c r="K27">
-        <v>-7.01</v>
+        <v>17.42</v>
       </c>
       <c r="L27">
-        <v>-1.9</v>
+        <v>4.02</v>
       </c>
       <c r="M27">
-        <v>59.89</v>
+        <v>76.62</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>301370</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>24.3</v>
+        <v>26.6</v>
       </c>
       <c r="E28">
-        <v>23.8</v>
+        <v>25.2</v>
       </c>
       <c r="F28">
-        <v>25.65</v>
+        <v>26.8</v>
       </c>
       <c r="G28">
-        <v>22.88</v>
+        <v>24.38</v>
       </c>
       <c r="H28">
-        <v>322187</v>
+        <v>396777</v>
       </c>
       <c r="I28">
-        <v>770188107</v>
+        <v>1009193277</v>
       </c>
       <c r="J28">
-        <v>10.99</v>
+        <v>8.93</v>
       </c>
       <c r="K28">
-        <v>-5.56</v>
+        <v>-7.01</v>
       </c>
       <c r="L28">
-        <v>-1.4</v>
+        <v>-1.9</v>
       </c>
       <c r="M28">
-        <v>48.63</v>
+        <v>59.89</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>301370</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>23.45</v>
+        <v>24.3</v>
       </c>
       <c r="E29">
-        <v>22.28</v>
+        <v>23.8</v>
       </c>
       <c r="F29">
-        <v>23.73</v>
+        <v>25.65</v>
       </c>
       <c r="G29">
-        <v>22.22</v>
+        <v>22.88</v>
       </c>
       <c r="H29">
-        <v>254099</v>
+        <v>322187</v>
       </c>
       <c r="I29">
-        <v>583133524</v>
+        <v>770188107</v>
       </c>
       <c r="J29">
-        <v>6.34</v>
+        <v>10.99</v>
       </c>
       <c r="K29">
-        <v>-6.39</v>
+        <v>-5.56</v>
       </c>
       <c r="L29">
-        <v>-1.52</v>
+        <v>-1.4</v>
       </c>
       <c r="M29">
-        <v>38.35</v>
+        <v>48.63</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>301370</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>22.03</v>
+        <v>23.45</v>
       </c>
       <c r="E30">
-        <v>22.68</v>
+        <v>22.28</v>
       </c>
       <c r="F30">
-        <v>23.32</v>
+        <v>23.73</v>
       </c>
       <c r="G30">
-        <v>21.57</v>
+        <v>22.22</v>
       </c>
       <c r="H30">
-        <v>212837</v>
+        <v>254099</v>
       </c>
       <c r="I30">
-        <v>479368998</v>
+        <v>583133524</v>
       </c>
       <c r="J30">
-        <v>7.85</v>
+        <v>6.34</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>-6.39</v>
       </c>
       <c r="L30">
-        <v>0.4</v>
+        <v>-1.52</v>
       </c>
       <c r="M30">
-        <v>32.13</v>
+        <v>38.35</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>301370</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>22.09</v>
+        <v>22.03</v>
       </c>
       <c r="E31">
-        <v>21.6</v>
+        <v>22.68</v>
       </c>
       <c r="F31">
-        <v>22.38</v>
+        <v>23.32</v>
       </c>
       <c r="G31">
-        <v>21.15</v>
+        <v>21.57</v>
       </c>
       <c r="H31">
-        <v>203740</v>
+        <v>212837</v>
       </c>
       <c r="I31">
-        <v>443810096</v>
+        <v>479368998</v>
       </c>
       <c r="J31">
-        <v>5.42</v>
+        <v>7.85</v>
       </c>
       <c r="K31">
-        <v>-4.76</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
-        <v>-1.08</v>
+        <v>0.4</v>
       </c>
       <c r="M31">
-        <v>30.75</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>301370</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>21.37</v>
+        <v>22.09</v>
       </c>
       <c r="E32">
-        <v>21.75</v>
+        <v>21.6</v>
       </c>
       <c r="F32">
-        <v>22.78</v>
+        <v>22.38</v>
       </c>
       <c r="G32">
-        <v>21.09</v>
+        <v>21.15</v>
       </c>
       <c r="H32">
-        <v>217945</v>
+        <v>203740</v>
       </c>
       <c r="I32">
-        <v>481754218</v>
+        <v>443810096</v>
       </c>
       <c r="J32">
-        <v>7.82</v>
+        <v>5.42</v>
       </c>
       <c r="K32">
-        <v>0.6899999999999999</v>
+        <v>-4.76</v>
       </c>
       <c r="L32">
-        <v>0.15</v>
+        <v>-1.08</v>
       </c>
       <c r="M32">
-        <v>32.9</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>301370</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>20.64</v>
+        <v>21.37</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>21.75</v>
       </c>
       <c r="F33">
-        <v>21.63</v>
+        <v>22.78</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>21.09</v>
       </c>
       <c r="H33">
-        <v>211143</v>
+        <v>217945</v>
       </c>
       <c r="I33">
-        <v>434578750</v>
+        <v>481754218</v>
       </c>
       <c r="J33">
-        <v>7.49</v>
+        <v>7.82</v>
       </c>
       <c r="K33">
-        <v>-8.050000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L33">
-        <v>-1.75</v>
+        <v>0.15</v>
       </c>
       <c r="M33">
-        <v>31.87</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>301370</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>19.55</v>
+        <v>20.64</v>
       </c>
       <c r="E34">
-        <v>19.17</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>20.15</v>
+        <v>21.63</v>
       </c>
       <c r="G34">
-        <v>19.08</v>
+        <v>20</v>
       </c>
       <c r="H34">
-        <v>133693</v>
+        <v>211143</v>
       </c>
       <c r="I34">
-        <v>261397324</v>
+        <v>434578750</v>
       </c>
       <c r="J34">
-        <v>5.35</v>
+        <v>7.49</v>
       </c>
       <c r="K34">
-        <v>-4.15</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="L34">
-        <v>-0.83</v>
+        <v>-1.75</v>
       </c>
       <c r="M34">
-        <v>20.18</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>301370</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>20.3</v>
+        <v>19.55</v>
       </c>
       <c r="E35">
-        <v>19.02</v>
+        <v>19.17</v>
       </c>
       <c r="F35">
-        <v>20.47</v>
+        <v>20.15</v>
       </c>
       <c r="G35">
-        <v>19.01</v>
+        <v>19.08</v>
       </c>
       <c r="H35">
-        <v>122604</v>
+        <v>133693</v>
       </c>
       <c r="I35">
-        <v>241732610</v>
+        <v>261397324</v>
       </c>
       <c r="J35">
-        <v>7.62</v>
+        <v>5.35</v>
       </c>
       <c r="K35">
-        <v>-0.78</v>
+        <v>-4.15</v>
       </c>
       <c r="L35">
-        <v>-0.15</v>
+        <v>-0.83</v>
       </c>
       <c r="M35">
-        <v>18.51</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>301370</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>18.88</v>
+        <v>20.3</v>
       </c>
       <c r="E36">
-        <v>20.3</v>
+        <v>19.02</v>
       </c>
       <c r="F36">
-        <v>20.3</v>
+        <v>20.47</v>
       </c>
       <c r="G36">
-        <v>18.86</v>
+        <v>19.01</v>
       </c>
       <c r="H36">
-        <v>117866</v>
+        <v>122604</v>
       </c>
       <c r="I36">
-        <v>234279838</v>
+        <v>241732610</v>
       </c>
       <c r="J36">
-        <v>7.57</v>
+        <v>7.62</v>
       </c>
       <c r="K36">
-        <v>6.73</v>
+        <v>-0.78</v>
       </c>
       <c r="L36">
-        <v>1.28</v>
+        <v>-0.15</v>
       </c>
       <c r="M36">
-        <v>17.79</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>301370</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>20.06</v>
+        <v>18.88</v>
       </c>
       <c r="E37">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="F37">
-        <v>21.03</v>
+        <v>20.3</v>
       </c>
       <c r="G37">
-        <v>19.92</v>
+        <v>18.86</v>
       </c>
       <c r="H37">
-        <v>150130</v>
+        <v>117866</v>
       </c>
       <c r="I37">
-        <v>308281575</v>
+        <v>234279838</v>
       </c>
       <c r="J37">
-        <v>5.47</v>
+        <v>7.57</v>
       </c>
       <c r="K37">
-        <v>1.48</v>
+        <v>6.73</v>
       </c>
       <c r="L37">
-        <v>0.3</v>
+        <v>1.28</v>
       </c>
       <c r="M37">
-        <v>22.66</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>301370</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>20.2</v>
+        <v>20.06</v>
       </c>
       <c r="E38">
-        <v>20.99</v>
+        <v>20.6</v>
       </c>
       <c r="F38">
-        <v>21.66</v>
+        <v>21.03</v>
       </c>
       <c r="G38">
-        <v>20.06</v>
+        <v>19.92</v>
       </c>
       <c r="H38">
-        <v>223930</v>
+        <v>150130</v>
       </c>
       <c r="I38">
-        <v>467219181</v>
+        <v>308281575</v>
       </c>
       <c r="J38">
-        <v>7.77</v>
+        <v>5.47</v>
       </c>
       <c r="K38">
-        <v>1.89</v>
+        <v>1.48</v>
       </c>
       <c r="L38">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="M38">
-        <v>33.8</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>301370</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>20.37</v>
+        <v>20.2</v>
       </c>
       <c r="E39">
-        <v>19.98</v>
+        <v>20.99</v>
       </c>
       <c r="F39">
-        <v>20.59</v>
+        <v>21.66</v>
       </c>
       <c r="G39">
-        <v>19.91</v>
+        <v>20.06</v>
       </c>
       <c r="H39">
-        <v>151489</v>
+        <v>223930</v>
       </c>
       <c r="I39">
-        <v>305529601</v>
+        <v>467219181</v>
       </c>
       <c r="J39">
-        <v>3.24</v>
+        <v>7.77</v>
       </c>
       <c r="K39">
-        <v>-4.81</v>
+        <v>1.89</v>
       </c>
       <c r="L39">
-        <v>-1.01</v>
+        <v>0.39</v>
       </c>
       <c r="M39">
-        <v>22.87</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>301370</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>20.04</v>
+        <v>20.37</v>
       </c>
       <c r="E40">
-        <v>19.73</v>
+        <v>19.98</v>
       </c>
       <c r="F40">
-        <v>20.2</v>
+        <v>20.59</v>
       </c>
       <c r="G40">
-        <v>19.5</v>
+        <v>19.91</v>
       </c>
       <c r="H40">
-        <v>86972</v>
+        <v>151489</v>
       </c>
       <c r="I40">
-        <v>171176628</v>
+        <v>305529601</v>
       </c>
       <c r="J40">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="K40">
-        <v>-1.25</v>
+        <v>-4.81</v>
       </c>
       <c r="L40">
-        <v>-0.25</v>
+        <v>-1.01</v>
       </c>
       <c r="M40">
-        <v>13.13</v>
+        <v>22.87</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>301370</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>19.62</v>
+        <v>20.04</v>
       </c>
       <c r="E41">
-        <v>19.43</v>
+        <v>19.73</v>
       </c>
       <c r="F41">
-        <v>19.76</v>
+        <v>20.2</v>
       </c>
       <c r="G41">
-        <v>19.29</v>
+        <v>19.5</v>
       </c>
       <c r="H41">
-        <v>68206</v>
+        <v>86972</v>
       </c>
       <c r="I41">
-        <v>132542209</v>
+        <v>171176628</v>
       </c>
       <c r="J41">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="K41">
-        <v>-1.52</v>
+        <v>-1.25</v>
       </c>
       <c r="L41">
-        <v>-0.3</v>
+        <v>-0.25</v>
       </c>
       <c r="M41">
-        <v>10.3</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>301370</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>19.42</v>
+        <v>19.62</v>
       </c>
       <c r="E42">
-        <v>19.36</v>
+        <v>19.43</v>
       </c>
       <c r="F42">
-        <v>19.56</v>
+        <v>19.76</v>
       </c>
       <c r="G42">
-        <v>19.09</v>
+        <v>19.29</v>
       </c>
       <c r="H42">
-        <v>58388</v>
+        <v>68206</v>
       </c>
       <c r="I42">
-        <v>112726530</v>
+        <v>132542209</v>
       </c>
       <c r="J42">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="K42">
-        <v>-0.36</v>
+        <v>-1.52</v>
       </c>
       <c r="L42">
-        <v>-0.07000000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="M42">
-        <v>8.81</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>301370</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
+        <v>19.42</v>
+      </c>
+      <c r="E43">
         <v>19.36</v>
       </c>
-      <c r="E43">
-        <v>18.78</v>
-      </c>
       <c r="F43">
-        <v>19.45</v>
+        <v>19.56</v>
       </c>
       <c r="G43">
-        <v>18.78</v>
+        <v>19.09</v>
       </c>
       <c r="H43">
-        <v>58186</v>
+        <v>58388</v>
       </c>
       <c r="I43">
-        <v>110466226</v>
+        <v>112726530</v>
       </c>
       <c r="J43">
-        <v>3.46</v>
+        <v>2.42</v>
       </c>
       <c r="K43">
-        <v>-3</v>
+        <v>-0.36</v>
       </c>
       <c r="L43">
-        <v>-0.58</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M43">
-        <v>8.779999999999999</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>301370</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>18.89</v>
+        <v>19.36</v>
       </c>
       <c r="E44">
-        <v>18.85</v>
+        <v>18.78</v>
       </c>
       <c r="F44">
-        <v>19.09</v>
+        <v>19.45</v>
       </c>
       <c r="G44">
-        <v>18.6</v>
+        <v>18.78</v>
       </c>
       <c r="H44">
-        <v>42428</v>
+        <v>58186</v>
       </c>
       <c r="I44">
-        <v>79778869</v>
+        <v>110466226</v>
       </c>
       <c r="J44">
-        <v>2.61</v>
+        <v>3.46</v>
       </c>
       <c r="K44">
-        <v>0.37</v>
+        <v>-3</v>
       </c>
       <c r="L44">
-        <v>0.07000000000000001</v>
+        <v>-0.58</v>
       </c>
       <c r="M44">
-        <v>6.4</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>301370</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>18.72</v>
+        <v>18.89</v>
       </c>
       <c r="E45">
-        <v>19.26</v>
+        <v>18.85</v>
       </c>
       <c r="F45">
-        <v>19.45</v>
+        <v>19.09</v>
       </c>
       <c r="G45">
-        <v>18.69</v>
+        <v>18.6</v>
       </c>
       <c r="H45">
-        <v>73481</v>
+        <v>42428</v>
       </c>
       <c r="I45">
-        <v>141464638</v>
+        <v>79778869</v>
       </c>
       <c r="J45">
-        <v>4.03</v>
+        <v>2.61</v>
       </c>
       <c r="K45">
-        <v>2.18</v>
+        <v>0.37</v>
       </c>
       <c r="L45">
-        <v>0.41</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M45">
-        <v>11.09</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>301370</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>19.07</v>
+        <v>18.72</v>
       </c>
       <c r="E46">
-        <v>19.11</v>
+        <v>19.26</v>
       </c>
       <c r="F46">
-        <v>19.55</v>
+        <v>19.45</v>
       </c>
       <c r="G46">
-        <v>19.03</v>
+        <v>18.69</v>
       </c>
       <c r="H46">
-        <v>55621</v>
+        <v>73481</v>
       </c>
       <c r="I46">
-        <v>107134291</v>
+        <v>141464638</v>
       </c>
       <c r="J46">
-        <v>2.7</v>
+        <v>4.03</v>
       </c>
       <c r="K46">
-        <v>-0.78</v>
+        <v>2.18</v>
       </c>
       <c r="L46">
-        <v>-0.15</v>
+        <v>0.41</v>
       </c>
       <c r="M46">
-        <v>8.4</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>301370</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>18.9</v>
+        <v>19.07</v>
       </c>
       <c r="E47">
-        <v>19.2</v>
+        <v>19.11</v>
       </c>
       <c r="F47">
-        <v>19.3</v>
+        <v>19.55</v>
       </c>
       <c r="G47">
-        <v>18.9</v>
+        <v>19.03</v>
       </c>
       <c r="H47">
-        <v>50005</v>
+        <v>55621</v>
       </c>
       <c r="I47">
-        <v>95669529</v>
+        <v>107134291</v>
       </c>
       <c r="J47">
-        <v>2.09</v>
+        <v>2.7</v>
       </c>
       <c r="K47">
-        <v>0.47</v>
+        <v>-0.78</v>
       </c>
       <c r="L47">
-        <v>0.09</v>
+        <v>-0.15</v>
       </c>
       <c r="M47">
-        <v>7.55</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>301370</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>19.09</v>
+        <v>18.9</v>
       </c>
       <c r="E48">
-        <v>19.15</v>
+        <v>19.2</v>
       </c>
       <c r="F48">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="G48">
-        <v>18.84</v>
+        <v>18.9</v>
       </c>
       <c r="H48">
-        <v>82391</v>
+        <v>50005</v>
       </c>
       <c r="I48">
-        <v>158414014</v>
+        <v>95669529</v>
       </c>
       <c r="J48">
-        <v>4.48</v>
+        <v>2.09</v>
       </c>
       <c r="K48">
-        <v>-0.26</v>
+        <v>0.47</v>
       </c>
       <c r="L48">
-        <v>-0.05</v>
+        <v>0.09</v>
       </c>
       <c r="M48">
-        <v>12.44</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>301370</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>18.97</v>
+        <v>19.09</v>
       </c>
       <c r="E49">
-        <v>19.09</v>
+        <v>19.15</v>
       </c>
       <c r="F49">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="G49">
-        <v>18.21</v>
+        <v>18.84</v>
       </c>
       <c r="H49">
-        <v>71002</v>
+        <v>82391</v>
       </c>
       <c r="I49">
-        <v>133560422</v>
+        <v>158414014</v>
       </c>
       <c r="J49">
-        <v>4.65</v>
+        <v>4.48</v>
       </c>
       <c r="K49">
-        <v>-0.31</v>
+        <v>-0.26</v>
       </c>
       <c r="L49">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="M49">
-        <v>10.72</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>301370</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>19.05</v>
+        <v>18.97</v>
       </c>
       <c r="E50">
-        <v>20.01</v>
+        <v>19.09</v>
       </c>
       <c r="F50">
-        <v>20.3</v>
+        <v>19.1</v>
       </c>
       <c r="G50">
-        <v>18.96</v>
+        <v>18.21</v>
       </c>
       <c r="H50">
-        <v>117288</v>
+        <v>71002</v>
       </c>
       <c r="I50">
-        <v>231398731</v>
+        <v>133560422</v>
       </c>
       <c r="J50">
-        <v>7.02</v>
+        <v>4.65</v>
       </c>
       <c r="K50">
-        <v>4.82</v>
+        <v>-0.31</v>
       </c>
       <c r="L50">
-        <v>0.92</v>
+        <v>-0.06</v>
       </c>
       <c r="M50">
-        <v>17.7</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>301370</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>19.87</v>
+        <v>19.05</v>
       </c>
       <c r="E51">
-        <v>20.11</v>
+        <v>20.01</v>
       </c>
       <c r="F51">
-        <v>20.55</v>
+        <v>20.3</v>
       </c>
       <c r="G51">
-        <v>19.71</v>
+        <v>18.96</v>
       </c>
       <c r="H51">
-        <v>88880</v>
+        <v>117288</v>
       </c>
       <c r="I51">
-        <v>177950921</v>
+        <v>231398731</v>
       </c>
       <c r="J51">
-        <v>4.2</v>
+        <v>7.02</v>
       </c>
       <c r="K51">
-        <v>0.5</v>
+        <v>4.82</v>
       </c>
       <c r="L51">
-        <v>0.1</v>
+        <v>0.92</v>
       </c>
       <c r="M51">
-        <v>13.42</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>301370</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>19.75</v>
+        <v>19.87</v>
       </c>
       <c r="E52">
-        <v>19.55</v>
+        <v>20.11</v>
       </c>
       <c r="F52">
-        <v>20</v>
+        <v>20.55</v>
       </c>
       <c r="G52">
-        <v>19.4</v>
+        <v>19.71</v>
       </c>
       <c r="H52">
-        <v>58121</v>
+        <v>88880</v>
       </c>
       <c r="I52">
-        <v>114473166</v>
+        <v>177950921</v>
       </c>
       <c r="J52">
-        <v>2.98</v>
+        <v>4.2</v>
       </c>
       <c r="K52">
-        <v>-2.78</v>
+        <v>0.5</v>
       </c>
       <c r="L52">
-        <v>-0.5600000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="M52">
-        <v>8.77</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>301370</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>19.65</v>
+        <v>19.75</v>
       </c>
       <c r="E53">
-        <v>18.91</v>
+        <v>19.55</v>
       </c>
       <c r="F53">
-        <v>19.71</v>
+        <v>20</v>
       </c>
       <c r="G53">
-        <v>18.85</v>
+        <v>19.4</v>
       </c>
       <c r="H53">
-        <v>56681</v>
+        <v>58121</v>
       </c>
       <c r="I53">
-        <v>108405330</v>
+        <v>114473166</v>
       </c>
       <c r="J53">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="K53">
-        <v>-3.27</v>
+        <v>-2.78</v>
       </c>
       <c r="L53">
-        <v>-0.64</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="M53">
-        <v>8.56</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>301370</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>19.03</v>
+        <v>19.65</v>
       </c>
       <c r="E54">
-        <v>19.23</v>
+        <v>18.91</v>
       </c>
       <c r="F54">
-        <v>19.24</v>
+        <v>19.71</v>
       </c>
       <c r="G54">
-        <v>18.73</v>
+        <v>18.85</v>
       </c>
       <c r="H54">
-        <v>45425</v>
+        <v>56681</v>
       </c>
       <c r="I54">
-        <v>86458817</v>
+        <v>108405330</v>
       </c>
       <c r="J54">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="K54">
-        <v>1.69</v>
+        <v>-3.27</v>
       </c>
       <c r="L54">
-        <v>0.32</v>
+        <v>-0.64</v>
       </c>
       <c r="M54">
-        <v>6.86</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>301370</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>19.19</v>
+        <v>19.03</v>
       </c>
       <c r="E55">
-        <v>19.67</v>
+        <v>19.23</v>
       </c>
       <c r="F55">
-        <v>19.95</v>
+        <v>19.24</v>
       </c>
       <c r="G55">
-        <v>19.08</v>
+        <v>18.73</v>
       </c>
       <c r="H55">
-        <v>64874</v>
+        <v>45425</v>
       </c>
       <c r="I55">
-        <v>127550607</v>
+        <v>86458817</v>
       </c>
       <c r="J55">
-        <v>4.52</v>
+        <v>2.7</v>
       </c>
       <c r="K55">
-        <v>2.29</v>
+        <v>1.69</v>
       </c>
       <c r="L55">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="M55">
-        <v>9.789999999999999</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>301370</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>19.47</v>
+        <v>19.19</v>
       </c>
       <c r="E56">
-        <v>19.29</v>
+        <v>19.67</v>
       </c>
       <c r="F56">
         <v>19.95</v>
       </c>
       <c r="G56">
-        <v>19.28</v>
+        <v>19.08</v>
       </c>
       <c r="H56">
-        <v>49396</v>
+        <v>64874</v>
       </c>
       <c r="I56">
-        <v>96389279</v>
+        <v>127550607</v>
       </c>
       <c r="J56">
-        <v>3.41</v>
+        <v>4.52</v>
       </c>
       <c r="K56">
-        <v>-1.93</v>
+        <v>2.29</v>
       </c>
       <c r="L56">
-        <v>-0.38</v>
+        <v>0.44</v>
       </c>
       <c r="M56">
-        <v>7.46</v>
+        <v>9.789999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>301370</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D57">
+        <v>19.47</v>
+      </c>
+      <c r="E57">
         <v>19.29</v>
       </c>
-      <c r="E57">
-        <v>19.35</v>
-      </c>
       <c r="F57">
-        <v>19.55</v>
+        <v>19.95</v>
       </c>
       <c r="G57">
-        <v>19.13</v>
+        <v>19.28</v>
       </c>
       <c r="H57">
-        <v>41562</v>
+        <v>49396</v>
       </c>
       <c r="I57">
-        <v>80412699</v>
+        <v>96389279</v>
       </c>
       <c r="J57">
-        <v>2.18</v>
+        <v>3.41</v>
       </c>
       <c r="K57">
-        <v>0.31</v>
+        <v>-1.93</v>
       </c>
       <c r="L57">
-        <v>0.06</v>
+        <v>-0.38</v>
       </c>
       <c r="M57">
-        <v>6.27</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>301370</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>19.92</v>
+        <v>19.29</v>
       </c>
       <c r="E58">
-        <v>19.1</v>
+        <v>19.35</v>
       </c>
       <c r="F58">
-        <v>20.16</v>
+        <v>19.55</v>
       </c>
       <c r="G58">
-        <v>19.07</v>
+        <v>19.13</v>
       </c>
       <c r="H58">
-        <v>78364</v>
+        <v>41562</v>
       </c>
       <c r="I58">
-        <v>151807267</v>
+        <v>80412699</v>
       </c>
       <c r="J58">
-        <v>5.63</v>
+        <v>2.18</v>
       </c>
       <c r="K58">
-        <v>-1.29</v>
+        <v>0.31</v>
       </c>
       <c r="L58">
-        <v>-0.25</v>
+        <v>0.06</v>
       </c>
       <c r="M58">
-        <v>11.83</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>301370</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D59">
-        <v>18.86</v>
+        <v>19.92</v>
       </c>
       <c r="E59">
-        <v>18.98</v>
+        <v>19.1</v>
       </c>
       <c r="F59">
-        <v>19.2</v>
+        <v>20.16</v>
       </c>
       <c r="G59">
-        <v>18.8</v>
+        <v>19.07</v>
       </c>
       <c r="H59">
-        <v>42023</v>
+        <v>78364</v>
       </c>
       <c r="I59">
-        <v>79770581</v>
+        <v>151807267</v>
       </c>
       <c r="J59">
-        <v>2.09</v>
+        <v>5.63</v>
       </c>
       <c r="K59">
-        <v>-0.63</v>
+        <v>-1.29</v>
       </c>
       <c r="L59">
-        <v>-0.12</v>
+        <v>-0.25</v>
       </c>
       <c r="M59">
-        <v>6.34</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>301370</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>18.91</v>
+        <v>18.86</v>
       </c>
       <c r="E60">
-        <v>18.39</v>
+        <v>18.98</v>
       </c>
       <c r="F60">
         <v>19.2</v>
       </c>
       <c r="G60">
-        <v>18.33</v>
+        <v>18.8</v>
       </c>
       <c r="H60">
-        <v>55047</v>
+        <v>42023</v>
       </c>
       <c r="I60">
-        <v>102148173</v>
+        <v>79770581</v>
       </c>
       <c r="J60">
-        <v>4.58</v>
+        <v>2.09</v>
       </c>
       <c r="K60">
-        <v>-3.11</v>
+        <v>-0.63</v>
       </c>
       <c r="L60">
-        <v>-0.59</v>
+        <v>-0.12</v>
       </c>
       <c r="M60">
-        <v>8.31</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>301370</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D61">
-        <v>18.4</v>
+        <v>18.91</v>
       </c>
       <c r="E61">
-        <v>18.9</v>
+        <v>18.39</v>
       </c>
       <c r="F61">
-        <v>19.05</v>
+        <v>19.2</v>
       </c>
       <c r="G61">
-        <v>18.38</v>
+        <v>18.33</v>
       </c>
       <c r="H61">
-        <v>49083</v>
+        <v>55047</v>
       </c>
       <c r="I61">
-        <v>92500952</v>
+        <v>102148173</v>
       </c>
       <c r="J61">
-        <v>3.64</v>
+        <v>4.58</v>
       </c>
       <c r="K61">
-        <v>2.77</v>
+        <v>-3.11</v>
       </c>
       <c r="L61">
-        <v>0.51</v>
+        <v>-0.59</v>
       </c>
       <c r="M61">
-        <v>7.41</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>301370</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D62">
-        <v>18.86</v>
+        <v>18.4</v>
       </c>
       <c r="E62">
-        <v>18.82</v>
+        <v>18.9</v>
       </c>
       <c r="F62">
-        <v>19.38</v>
+        <v>19.05</v>
       </c>
       <c r="G62">
-        <v>18.75</v>
+        <v>18.38</v>
       </c>
       <c r="H62">
-        <v>38214</v>
+        <v>49083</v>
       </c>
       <c r="I62">
-        <v>72709889</v>
+        <v>92500952</v>
       </c>
       <c r="J62">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="K62">
-        <v>-0.42</v>
+        <v>2.77</v>
       </c>
       <c r="L62">
-        <v>-0.08</v>
+        <v>0.51</v>
       </c>
       <c r="M62">
-        <v>5.77</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>301370</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D63">
-        <v>18.7</v>
+        <v>18.86</v>
       </c>
       <c r="E63">
-        <v>19.02</v>
+        <v>18.82</v>
       </c>
       <c r="F63">
-        <v>19.72</v>
+        <v>19.38</v>
       </c>
       <c r="G63">
-        <v>18.7</v>
+        <v>18.75</v>
       </c>
       <c r="H63">
-        <v>61974</v>
+        <v>38214</v>
       </c>
       <c r="I63">
-        <v>119425635</v>
+        <v>72709889</v>
       </c>
       <c r="J63">
-        <v>5.42</v>
+        <v>3.33</v>
       </c>
       <c r="K63">
-        <v>1.06</v>
+        <v>-0.42</v>
       </c>
       <c r="L63">
-        <v>0.2</v>
+        <v>-0.08</v>
       </c>
       <c r="M63">
-        <v>9.35</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>301370</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D64">
-        <v>18.96</v>
+        <v>18.7</v>
       </c>
       <c r="E64">
-        <v>18.45</v>
+        <v>19.02</v>
       </c>
       <c r="F64">
-        <v>19.39</v>
+        <v>19.72</v>
       </c>
       <c r="G64">
-        <v>18.35</v>
+        <v>18.7</v>
       </c>
       <c r="H64">
-        <v>51836</v>
+        <v>61974</v>
       </c>
       <c r="I64">
-        <v>97498581</v>
+        <v>119425635</v>
       </c>
       <c r="J64">
-        <v>5.47</v>
+        <v>5.42</v>
       </c>
       <c r="K64">
-        <v>-3</v>
+        <v>1.06</v>
       </c>
       <c r="L64">
-        <v>-0.57</v>
+        <v>0.2</v>
       </c>
       <c r="M64">
-        <v>7.82</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>301370</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>18.51</v>
+        <v>18.96</v>
       </c>
       <c r="E65">
-        <v>18.33</v>
+        <v>18.45</v>
       </c>
       <c r="F65">
-        <v>18.6</v>
+        <v>19.39</v>
       </c>
       <c r="G65">
-        <v>18.05</v>
+        <v>18.35</v>
       </c>
       <c r="H65">
-        <v>33357</v>
+        <v>51836</v>
       </c>
       <c r="I65">
-        <v>60877824</v>
+        <v>97498581</v>
       </c>
       <c r="J65">
-        <v>2.98</v>
+        <v>5.47</v>
       </c>
       <c r="K65">
-        <v>-0.65</v>
+        <v>-3</v>
       </c>
       <c r="L65">
-        <v>-0.12</v>
+        <v>-0.57</v>
       </c>
       <c r="M65">
-        <v>5.04</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>301370</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D66">
-        <v>18.2</v>
+        <v>18.51</v>
       </c>
       <c r="E66">
-        <v>17.71</v>
+        <v>18.33</v>
       </c>
       <c r="F66">
-        <v>18.28</v>
+        <v>18.6</v>
       </c>
       <c r="G66">
-        <v>17.65</v>
+        <v>18.05</v>
       </c>
       <c r="H66">
-        <v>35373</v>
+        <v>33357</v>
       </c>
       <c r="I66">
-        <v>63014832</v>
+        <v>60877824</v>
       </c>
       <c r="J66">
-        <v>3.44</v>
+        <v>2.98</v>
       </c>
       <c r="K66">
-        <v>-3.38</v>
+        <v>-0.65</v>
       </c>
       <c r="L66">
-        <v>-0.62</v>
+        <v>-0.12</v>
       </c>
       <c r="M66">
-        <v>5.34</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>301370</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D67">
-        <v>17.58</v>
+        <v>18.2</v>
       </c>
       <c r="E67">
-        <v>17.57</v>
+        <v>17.71</v>
       </c>
       <c r="F67">
-        <v>17.94</v>
+        <v>18.28</v>
       </c>
       <c r="G67">
-        <v>17.41</v>
+        <v>17.65</v>
       </c>
       <c r="H67">
-        <v>31375</v>
+        <v>35373</v>
       </c>
       <c r="I67">
-        <v>55422834</v>
+        <v>63014832</v>
       </c>
       <c r="J67">
-        <v>2.99</v>
+        <v>3.44</v>
       </c>
       <c r="K67">
-        <v>-0.79</v>
+        <v>-3.38</v>
       </c>
       <c r="L67">
-        <v>-0.14</v>
+        <v>-0.62</v>
       </c>
       <c r="M67">
-        <v>4.74</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>301370</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D68">
-        <v>17.5</v>
+        <v>17.58</v>
       </c>
       <c r="E68">
-        <v>17.54</v>
+        <v>17.57</v>
       </c>
       <c r="F68">
-        <v>17.81</v>
+        <v>17.94</v>
       </c>
       <c r="G68">
-        <v>17.31</v>
+        <v>17.41</v>
       </c>
       <c r="H68">
-        <v>22186</v>
+        <v>31375</v>
       </c>
       <c r="I68">
-        <v>38946500</v>
+        <v>55422834</v>
       </c>
       <c r="J68">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="K68">
-        <v>-0.17</v>
+        <v>-0.79</v>
       </c>
       <c r="L68">
-        <v>-0.03</v>
+        <v>-0.14</v>
       </c>
       <c r="M68">
-        <v>3.35</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>301370</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D69">
-        <v>17.76</v>
+        <v>17.5</v>
       </c>
       <c r="E69">
-        <v>16.86</v>
+        <v>17.54</v>
       </c>
       <c r="F69">
-        <v>17.76</v>
+        <v>17.81</v>
       </c>
       <c r="G69">
-        <v>16.79</v>
+        <v>17.31</v>
       </c>
       <c r="H69">
-        <v>35141</v>
+        <v>22186</v>
       </c>
       <c r="I69">
-        <v>60036499</v>
+        <v>38946500</v>
       </c>
       <c r="J69">
-        <v>5.53</v>
+        <v>2.85</v>
       </c>
       <c r="K69">
-        <v>-3.88</v>
+        <v>-0.17</v>
       </c>
       <c r="L69">
-        <v>-0.68</v>
+        <v>-0.03</v>
       </c>
       <c r="M69">
-        <v>5.3</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>301370</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D70">
-        <v>16.9</v>
+        <v>17.76</v>
       </c>
       <c r="E70">
-        <v>17.35</v>
+        <v>16.86</v>
       </c>
       <c r="F70">
-        <v>17.36</v>
+        <v>17.76</v>
       </c>
       <c r="G70">
-        <v>16.8</v>
+        <v>16.79</v>
       </c>
       <c r="H70">
-        <v>26252</v>
+        <v>35141</v>
       </c>
       <c r="I70">
-        <v>45110648</v>
+        <v>60036499</v>
       </c>
       <c r="J70">
-        <v>3.32</v>
+        <v>5.53</v>
       </c>
       <c r="K70">
-        <v>2.91</v>
+        <v>-3.88</v>
       </c>
       <c r="L70">
-        <v>0.49</v>
+        <v>-0.68</v>
       </c>
       <c r="M70">
-        <v>3.96</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>301370</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="E71">
-        <v>17.28</v>
+        <v>17.35</v>
       </c>
       <c r="F71">
-        <v>17.47</v>
+        <v>17.36</v>
       </c>
       <c r="G71">
-        <v>17.18</v>
+        <v>16.8</v>
       </c>
       <c r="H71">
-        <v>30043</v>
+        <v>26252</v>
       </c>
       <c r="I71">
-        <v>51917547</v>
+        <v>45110648</v>
       </c>
       <c r="J71">
-        <v>1.67</v>
+        <v>3.32</v>
       </c>
       <c r="K71">
-        <v>-0.4</v>
+        <v>2.91</v>
       </c>
       <c r="L71">
-        <v>-0.07000000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="M71">
-        <v>4.53</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>301370</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="E72">
-        <v>17.2</v>
+        <v>17.28</v>
       </c>
       <c r="F72">
-        <v>17.25</v>
+        <v>17.47</v>
       </c>
       <c r="G72">
-        <v>16.93</v>
+        <v>17.18</v>
       </c>
       <c r="H72">
-        <v>23004</v>
+        <v>30043</v>
       </c>
       <c r="I72">
-        <v>39318700</v>
+        <v>51917547</v>
       </c>
       <c r="J72">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="K72">
-        <v>-0.46</v>
+        <v>-0.4</v>
       </c>
       <c r="L72">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M72">
-        <v>3.47</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>301370</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D73">
-        <v>17.21</v>
+        <v>17.2</v>
       </c>
       <c r="E73">
-        <v>17.51</v>
+        <v>17.2</v>
       </c>
       <c r="F73">
-        <v>17.59</v>
+        <v>17.25</v>
       </c>
       <c r="G73">
-        <v>17.02</v>
+        <v>16.93</v>
       </c>
       <c r="H73">
-        <v>35164</v>
+        <v>23004</v>
       </c>
       <c r="I73">
-        <v>61207494</v>
+        <v>39318700</v>
       </c>
       <c r="J73">
-        <v>3.31</v>
+        <v>1.85</v>
       </c>
       <c r="K73">
-        <v>1.8</v>
+        <v>-0.46</v>
       </c>
       <c r="L73">
-        <v>0.31</v>
+        <v>-0.08</v>
       </c>
       <c r="M73">
-        <v>5.31</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>301370</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>17.35</v>
+        <v>17.21</v>
       </c>
       <c r="E74">
-        <v>17.64</v>
+        <v>17.51</v>
       </c>
       <c r="F74">
-        <v>17.69</v>
+        <v>17.59</v>
       </c>
       <c r="G74">
-        <v>17.35</v>
+        <v>17.02</v>
       </c>
       <c r="H74">
-        <v>38651</v>
+        <v>35164</v>
       </c>
       <c r="I74">
-        <v>67855181</v>
+        <v>61207494</v>
       </c>
       <c r="J74">
-        <v>1.94</v>
+        <v>3.31</v>
       </c>
       <c r="K74">
-        <v>0.74</v>
+        <v>1.8</v>
       </c>
       <c r="L74">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="M74">
-        <v>5.83</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>301370</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D75">
-        <v>17.55</v>
+        <v>17.35</v>
       </c>
       <c r="E75">
-        <v>17.5</v>
+        <v>17.64</v>
       </c>
       <c r="F75">
-        <v>17.85</v>
+        <v>17.69</v>
       </c>
       <c r="G75">
-        <v>17.34</v>
+        <v>17.35</v>
       </c>
       <c r="H75">
-        <v>33329</v>
+        <v>38651</v>
       </c>
       <c r="I75">
-        <v>58591761</v>
+        <v>67855181</v>
       </c>
       <c r="J75">
-        <v>2.89</v>
+        <v>1.94</v>
       </c>
       <c r="K75">
-        <v>-0.79</v>
+        <v>0.74</v>
       </c>
       <c r="L75">
-        <v>-0.14</v>
+        <v>0.13</v>
       </c>
       <c r="M75">
-        <v>5.03</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>301370</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D76">
-        <v>17.47</v>
+        <v>17.55</v>
       </c>
       <c r="E76">
-        <v>17.76</v>
+        <v>17.5</v>
       </c>
       <c r="F76">
-        <v>18.05</v>
+        <v>17.85</v>
       </c>
       <c r="G76">
-        <v>17.45</v>
+        <v>17.34</v>
       </c>
       <c r="H76">
-        <v>48222</v>
+        <v>33329</v>
       </c>
       <c r="I76">
-        <v>85503868</v>
+        <v>58591761</v>
       </c>
       <c r="J76">
-        <v>3.43</v>
+        <v>2.89</v>
       </c>
       <c r="K76">
-        <v>1.49</v>
+        <v>-0.79</v>
       </c>
       <c r="L76">
-        <v>0.26</v>
+        <v>-0.14</v>
       </c>
       <c r="M76">
-        <v>7.28</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>301370</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D77">
-        <v>17.69</v>
+        <v>17.47</v>
       </c>
       <c r="E77">
-        <v>17.38</v>
+        <v>17.76</v>
       </c>
       <c r="F77">
-        <v>17.83</v>
+        <v>18.05</v>
       </c>
       <c r="G77">
-        <v>17.38</v>
+        <v>17.45</v>
       </c>
       <c r="H77">
-        <v>34391</v>
+        <v>48222</v>
       </c>
       <c r="I77">
-        <v>60430799</v>
+        <v>85503868</v>
       </c>
       <c r="J77">
-        <v>2.53</v>
+        <v>3.43</v>
       </c>
       <c r="K77">
-        <v>-2.14</v>
+        <v>1.49</v>
       </c>
       <c r="L77">
-        <v>-0.38</v>
+        <v>0.26</v>
       </c>
       <c r="M77">
-        <v>5.19</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>301370</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D78">
+        <v>17.69</v>
+      </c>
+      <c r="E78">
+        <v>17.38</v>
+      </c>
+      <c r="F78">
+        <v>17.83</v>
+      </c>
+      <c r="G78">
+        <v>17.38</v>
+      </c>
+      <c r="H78">
+        <v>34391</v>
+      </c>
+      <c r="I78">
+        <v>60430799</v>
+      </c>
+      <c r="J78">
+        <v>2.53</v>
+      </c>
+      <c r="K78">
+        <v>-2.14</v>
+      </c>
+      <c r="L78">
+        <v>-0.38</v>
+      </c>
+      <c r="M78">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>301370</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79">
         <v>17.44</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>17.7</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <v>17.85</v>
       </c>
-      <c r="G78">
+      <c r="G79">
         <v>17.4</v>
       </c>
-      <c r="H78">
+      <c r="H79">
         <v>34523</v>
       </c>
-      <c r="I78">
+      <c r="I79">
         <v>61084893.05</v>
       </c>
-      <c r="J78">
+      <c r="J79">
         <v>2.59</v>
       </c>
-      <c r="K78">
+      <c r="K79">
         <v>1.84</v>
       </c>
-      <c r="L78">
+      <c r="L79">
         <v>0.32</v>
       </c>
-      <c r="M78">
+      <c r="M79">
         <v>5.21</v>
       </c>
     </row>
